--- a/data/NFL Information.xlsx
+++ b/data/NFL Information.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lebow\OneDrive\Desktop\jerrys stuff\CS 1C Spring 2021\CS 1C Projects\Project 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspl\VS Projects\NFL-Pamphlet\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF79955-F3C9-4B80-A766-BDA8E1294FA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7828CA9-1874-42C8-B8AD-885199B743C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="0" windowWidth="5205" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -647,9 +647,6 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -668,9 +665,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -687,9 +681,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -990,1074 +981,1074 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="27.85546875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="11" style="22" customWidth="1"/>
-    <col min="7" max="7" width="46.85546875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="22"/>
+    <col min="1" max="1" width="27.6640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="27.88671875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="11" style="20" customWidth="1"/>
+    <col min="7" max="7" width="46.88671875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" style="20"/>
     <col min="9" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="17.85546875" style="2"/>
+    <col min="10" max="16384" width="17.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>98</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="10">
         <v>63400</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="26" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="3">
         <v>2026</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>102</v>
       </c>
       <c r="C3" s="4">
         <v>71000</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="24" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="4">
         <v>71008</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="3">
         <v>1998</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>120</v>
       </c>
       <c r="C5" s="4">
         <v>50000</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="7">
         <v>1973</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4">
         <v>75419</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I6" s="3">
         <v>1996</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="4">
         <v>61500</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="7">
         <v>1924</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C8" s="4">
         <v>65515</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="4">
         <v>67895</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I9" s="3">
         <v>1999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="4">
         <v>80000</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="24" t="s">
         <v>6</v>
       </c>
       <c r="I10" s="7">
         <v>2009</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>121</v>
       </c>
       <c r="C11" s="4">
         <v>76125</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="3">
         <v>2001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="4">
         <v>65000</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="24" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="3">
         <v>2002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="4">
         <v>81435</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I13" s="3">
         <v>1957</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="4">
         <v>72220</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="24" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="3">
         <v>2002</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="4">
         <v>67000</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="24" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="3">
         <v>2008</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C16" s="4">
         <v>69132</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I16" s="7">
         <v>1995</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="4">
         <v>76416</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I17" s="7">
         <v>1972</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C18" s="4">
         <v>65000</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="24" t="s">
         <v>26</v>
       </c>
       <c r="I18" s="7">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C19" s="4">
         <v>70240</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="24" t="s">
         <v>26</v>
       </c>
       <c r="I19" s="7">
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C20" s="4">
         <v>70240</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="24" t="s">
         <v>122</v>
       </c>
       <c r="I20" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="4">
         <v>65326</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I21" s="3">
         <v>1987</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C22" s="4">
         <v>66655</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="24" t="s">
         <v>26</v>
       </c>
       <c r="I22" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="4">
         <v>66829</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I23" s="3">
         <v>2002</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="4">
         <v>73000</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="24" t="s">
         <v>26</v>
       </c>
       <c r="I24" s="3">
         <v>1975</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="4">
         <v>82500</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I25" s="3">
         <v>2010</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="4">
         <v>82500</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I26" s="7">
         <v>2010</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="4">
         <v>69596</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I27" s="3">
         <v>2003</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="4">
         <v>68400</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I28" s="3">
         <v>2001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="4">
         <v>68500</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I29" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="4">
         <v>68000</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I30" s="3">
         <v>2002</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="4">
         <v>65890</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I31" s="3">
         <v>1998</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>66</v>
       </c>
       <c r="C32" s="4">
         <v>69143</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I32" s="3">
         <v>1999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
+    <row r="33" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="24"/>
+    <row r="34" spans="1:9" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="30"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="27"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+    <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="4">
         <v>82000</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H35" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="I35" s="9">
+      <c r="H35" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="3">
         <v>1997</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20" t="s">
+    <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="21"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+    <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="3">
         <v>71500</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="15" t="s">
         <v>2</v>
       </c>
       <c r="I40" s="3">
